--- a/data/xlsx/02262019.xlsx
+++ b/data/xlsx/02262019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C914987D-4DB6-3E46-861A-3C59F2119E65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71778E2E-C4E7-6C46-B566-7F535EB1E415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,11 +304,6 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -338,13 +333,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -697,11 +691,9 @@
     <col min="4" max="4" width="19"/>
     <col min="5" max="5" width="15"/>
     <col min="8" max="8" width="14"/>
-    <col min="9" max="10" width="21"/>
-    <col min="11" max="11" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -726,10 +718,9 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
         <v>43522</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -753,11 +744,9 @@
       <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>43522</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -781,10 +770,9 @@
       <c r="H3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>43522</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -808,10 +796,9 @@
       <c r="H4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>43522</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -835,10 +822,9 @@
       <c r="H5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>43522</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -862,10 +848,9 @@
       <c r="H6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>43522</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -889,11 +874,9 @@
       <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>43522</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -917,11 +900,9 @@
       <c r="H8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>43522</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -939,16 +920,15 @@
       <c r="F9">
         <v>37.869556000000003</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>-122.259337</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
         <v>43522</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -972,11 +952,9 @@
       <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
         <v>43522</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1000,10 +978,9 @@
       <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
         <v>43522</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1027,11 +1004,9 @@
       <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>43522</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1055,11 +1030,9 @@
       <c r="H13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
         <v>43522</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1083,10 +1056,9 @@
       <c r="H14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
         <v>43522</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1110,10 +1082,9 @@
       <c r="H15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
         <v>43522</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1137,10 +1108,9 @@
       <c r="H16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
         <v>43522</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1164,10 +1134,9 @@
       <c r="H17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <v>43522</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1191,11 +1160,9 @@
       <c r="H18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
         <v>43522</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1219,10 +1186,9 @@
       <c r="H19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>43522</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1246,13 +1212,6 @@
       <c r="H20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/02262019.xlsx
+++ b/data/xlsx/02262019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71778E2E-C4E7-6C46-B566-7F535EB1E415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68074878-A781-5F4C-9520-EB89D50F6521}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,6 +290,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -337,8 +340,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -720,7 +723,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43522</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -746,7 +749,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43522</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43522</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -798,7 +801,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43522</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -824,7 +827,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43522</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -850,7 +853,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43522</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -876,7 +879,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43522</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -902,7 +905,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43522</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -920,7 +923,7 @@
       <c r="F9">
         <v>37.869556000000003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>-122.259337</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -928,7 +931,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43522</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -954,7 +957,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43522</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -980,7 +983,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43522</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43522</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1032,7 +1035,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43522</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1058,7 +1061,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43522</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1084,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43522</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1110,7 +1113,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>43522</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1136,7 +1139,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>43522</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1162,7 +1165,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>43522</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>43522</v>
       </c>
       <c r="B20" s="2" t="s">
